--- a/WakilRecouvrement/WakilRecouvrement.Web/Uploads/LOT_13_POSTE3.xlsx
+++ b/WakilRecouvrement/WakilRecouvrement.Web/Uploads/LOT_13_POSTE3.xlsx
@@ -2106,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K200"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2117,7 @@
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>554</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>5483229</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>3406164</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>9618264</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>9007816</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>9788589</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>4886178</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>4870683</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>6523461</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2552,7 +2552,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
@@ -2583,8 +2584,10 @@
       <c r="K15" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A16"/>
       <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
@@ -2613,8 +2616,9 @@
       <c r="K16" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
@@ -2644,7 +2648,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
@@ -2674,7 +2678,7 @@
         <v>594334</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
@@ -2704,7 +2708,7 @@
         <v>5724887</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>5177736</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
@@ -2764,7 +2768,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>8890958</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
@@ -2822,7 +2826,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:11" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
         <v>80</v>
       </c>
@@ -2853,8 +2858,10 @@
       <c r="K24" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A25"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2885,8 +2892,9 @@
       <c r="K25" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
@@ -2916,7 +2924,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
@@ -2946,7 +2954,7 @@
         <v>5862052</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
@@ -2976,7 +2984,7 @@
         <v>5406043</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
@@ -3006,7 +3014,7 @@
         <v>6536240</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>100</v>
       </c>
@@ -3036,7 +3044,7 @@
         <v>4530035</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>95</v>
       </c>
@@ -3066,7 +3074,8 @@
         <v>7981379</v>
       </c>
     </row>
-    <row r="32" spans="2:11" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
         <v>105</v>
       </c>
@@ -3097,8 +3106,10 @@
       <c r="K32" s="2">
         <v>8783715</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A33"/>
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
@@ -3127,8 +3138,9 @@
       <c r="K33" s="1">
         <v>7888206</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>110</v>
       </c>
@@ -3158,7 +3170,7 @@
         <v>4723109</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>113</v>
       </c>
@@ -3188,7 +3200,7 @@
         <v>7331301</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>116</v>
       </c>
@@ -3218,7 +3230,8 @@
         <v>778954</v>
       </c>
     </row>
-    <row r="37" spans="2:11" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
         <v>119</v>
       </c>
@@ -3247,8 +3260,10 @@
       <c r="K37" s="2">
         <v>3604111</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A38"/>
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
@@ -3277,8 +3292,9 @@
       <c r="K38" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
@@ -3308,7 +3324,8 @@
         <v>13409853</v>
       </c>
     </row>
-    <row r="40" spans="2:11" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
       <c r="B40" s="2" t="s">
         <v>110</v>
       </c>
@@ -3339,8 +3356,10 @@
       <c r="K40" s="2">
         <v>5151816</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A41"/>
       <c r="B41" s="1" t="s">
         <v>129</v>
       </c>
@@ -3369,8 +3388,9 @@
       <c r="K41" s="1">
         <v>11860034</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>132</v>
       </c>
@@ -3400,7 +3420,7 @@
         <v>9282883</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>135</v>
       </c>
@@ -3430,7 +3450,7 @@
         <v>3756319</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
@@ -3460,7 +3480,7 @@
         <v>4449555</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="108" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="108" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>140</v>
       </c>
@@ -3492,7 +3512,7 @@
         <v>4659095</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>143</v>
       </c>
@@ -3522,7 +3542,7 @@
         <v>3921479</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
@@ -3552,7 +3572,7 @@
         <v>9950734</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>148</v>
       </c>
@@ -3582,7 +3602,7 @@
         <v>4327952</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
@@ -3614,7 +3634,7 @@
         <v>6496571</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>110</v>
       </c>
@@ -3644,7 +3664,7 @@
         <v>7981635</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>140</v>
       </c>
@@ -3674,7 +3694,7 @@
         <v>4812033</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -3706,7 +3726,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>160</v>
       </c>
@@ -3736,7 +3756,7 @@
         <v>8835393</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -3766,7 +3786,7 @@
         <v>509366</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -3798,7 +3818,7 @@
         <v>1810039</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -3828,7 +3848,8 @@
         <v>5480301</v>
       </c>
     </row>
-    <row r="57" spans="2:11" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
       <c r="B57" s="2" t="s">
         <v>171</v>
       </c>
@@ -3857,8 +3878,10 @@
       <c r="K57" s="2">
         <v>7594287</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A58"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -3887,8 +3910,9 @@
       <c r="K58" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="L58"/>
+    </row>
+    <row r="59" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>1</v>
       </c>
@@ -3918,7 +3942,7 @@
         <v>13400409</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -3950,7 +3974,7 @@
         <v>6459538</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>183</v>
       </c>
@@ -3982,7 +4006,7 @@
         <v>2068574</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>180</v>
       </c>
@@ -4012,7 +4036,7 @@
         <v>6464900</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>168</v>
       </c>
@@ -4042,7 +4066,8 @@
         <v>8307586</v>
       </c>
     </row>
-    <row r="64" spans="2:11" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
       <c r="B64" s="2" t="s">
         <v>92</v>
       </c>
@@ -4071,8 +4096,10 @@
       <c r="K64" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A65"/>
       <c r="B65" s="1" t="s">
         <v>14</v>
       </c>
@@ -4101,8 +4128,9 @@
       <c r="K65" s="1">
         <v>6460211</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>196</v>
       </c>
@@ -4134,7 +4162,7 @@
         <v>9393850</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>199</v>
       </c>
@@ -4164,7 +4192,7 @@
         <v>4908890</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>202</v>
       </c>
@@ -4194,7 +4222,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>206</v>
       </c>
@@ -4226,7 +4254,7 @@
         <v>4617913</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>209</v>
       </c>
@@ -4256,7 +4284,7 @@
         <v>4581054</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>52</v>
       </c>
@@ -4286,7 +4314,7 @@
         <v>9977564</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>168</v>
       </c>
@@ -4318,7 +4346,7 @@
         <v>3924941</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>143</v>
       </c>
@@ -4348,7 +4376,7 @@
         <v>12813181</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>140</v>
       </c>
@@ -4378,7 +4406,7 @@
         <v>4686131</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="72" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
@@ -4410,7 +4438,7 @@
         <v>7284586</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>52</v>
       </c>
@@ -4440,7 +4468,7 @@
         <v>6187183</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>8</v>
       </c>
@@ -4472,7 +4500,7 @@
         <v>7014224</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>180</v>
       </c>
@@ -4502,7 +4530,7 @@
         <v>8515020</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>228</v>
       </c>
@@ -4532,7 +4560,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>232</v>
       </c>
@@ -5014,7 +5042,7 @@
         <v>9165918</v>
       </c>
     </row>
-    <row r="96" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" ht="72" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>100</v>
       </c>
@@ -5044,7 +5072,7 @@
         <v>7211234</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>273</v>
       </c>
@@ -5524,7 +5552,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="2:11" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
       <c r="B113" s="2" t="s">
         <v>52</v>
       </c>
@@ -5555,8 +5584,9 @@
       <c r="K113" s="2">
         <v>6084951</v>
       </c>
-    </row>
-    <row r="114" spans="2:11" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>52</v>
       </c>
@@ -5586,7 +5616,7 @@
         <v>3145090</v>
       </c>
     </row>
-    <row r="115" spans="2:11" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>52</v>
       </c>
@@ -5616,7 +5646,8 @@
         <v>6106506</v>
       </c>
     </row>
-    <row r="116" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A116"/>
       <c r="B116" s="1" t="s">
         <v>92</v>
       </c>
@@ -5645,8 +5676,9 @@
       <c r="K116" s="1">
         <v>5895259</v>
       </c>
-    </row>
-    <row r="117" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L116"/>
+    </row>
+    <row r="117" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>174</v>
       </c>
@@ -5678,7 +5710,7 @@
         <v>5473473</v>
       </c>
     </row>
-    <row r="118" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>273</v>
       </c>
@@ -5708,7 +5740,8 @@
         <v>8719647</v>
       </c>
     </row>
-    <row r="119" spans="2:11" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
       <c r="B119" s="2" t="s">
         <v>171</v>
       </c>
@@ -5739,8 +5772,10 @@
       <c r="K119" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="120" spans="2:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="L119" s="3"/>
+    </row>
+    <row r="120" spans="1:12" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A120"/>
       <c r="B120" s="1" t="s">
         <v>329</v>
       </c>
@@ -5769,8 +5804,9 @@
       <c r="K120" s="1">
         <v>8414961</v>
       </c>
-    </row>
-    <row r="121" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L120"/>
+    </row>
+    <row r="121" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>259</v>
       </c>
@@ -5800,7 +5836,7 @@
         <v>13432308</v>
       </c>
     </row>
-    <row r="122" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>334</v>
       </c>
@@ -5830,7 +5866,7 @@
         <v>7096065</v>
       </c>
     </row>
-    <row r="123" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>337</v>
       </c>
@@ -5860,7 +5896,7 @@
         <v>5829159</v>
       </c>
     </row>
-    <row r="124" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>132</v>
       </c>
@@ -5890,7 +5926,7 @@
         <v>9321814</v>
       </c>
     </row>
-    <row r="125" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>140</v>
       </c>
@@ -5922,7 +5958,7 @@
         <v>4705547</v>
       </c>
     </row>
-    <row r="126" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>329</v>
       </c>
@@ -5952,7 +5988,7 @@
         <v>8894431</v>
       </c>
     </row>
-    <row r="127" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>110</v>
       </c>
@@ -5982,7 +6018,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="128" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>100</v>
       </c>
@@ -6012,7 +6048,7 @@
         <v>58408</v>
       </c>
     </row>
-    <row r="129" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>105</v>
       </c>
@@ -6042,7 +6078,7 @@
         <v>11034336</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>140</v>
       </c>
@@ -6074,7 +6110,7 @@
         <v>4811184</v>
       </c>
     </row>
-    <row r="131" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>168</v>
       </c>
@@ -6104,7 +6140,7 @@
         <v>5450962</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>168</v>
       </c>
@@ -6134,7 +6170,7 @@
         <v>5420530</v>
       </c>
     </row>
-    <row r="133" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>80</v>
       </c>
@@ -6164,7 +6200,7 @@
         <v>11613410</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>361</v>
       </c>
@@ -6196,7 +6232,7 @@
         <v>1342065</v>
       </c>
     </row>
-    <row r="135" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>361</v>
       </c>
@@ -6228,7 +6264,7 @@
         <v>1261881</v>
       </c>
     </row>
-    <row r="136" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>42</v>
       </c>
@@ -6260,7 +6296,7 @@
         <v>9041254</v>
       </c>
     </row>
-    <row r="137" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>143</v>
       </c>
@@ -6292,7 +6328,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="138" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>18</v>
       </c>
@@ -6322,7 +6358,7 @@
         <v>9149249</v>
       </c>
     </row>
-    <row r="139" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>113</v>
       </c>
@@ -6352,7 +6388,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>160</v>
       </c>
@@ -6382,7 +6418,7 @@
         <v>5386665</v>
       </c>
     </row>
-    <row r="141" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>60</v>
       </c>
@@ -6412,7 +6448,7 @@
         <v>4805346</v>
       </c>
     </row>
-    <row r="142" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>259</v>
       </c>
@@ -6442,7 +6478,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="143" spans="2:11" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
       <c r="B143" s="2" t="s">
         <v>11</v>
       </c>
@@ -6471,8 +6508,10 @@
       <c r="K143" s="2">
         <v>5836469</v>
       </c>
-    </row>
-    <row r="144" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L143" s="3"/>
+    </row>
+    <row r="144" spans="1:12" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A144"/>
       <c r="B144" s="1" t="s">
         <v>63</v>
       </c>
@@ -6501,6 +6540,7 @@
       <c r="K144" s="1">
         <v>5770628</v>
       </c>
+      <c r="L144"/>
     </row>
     <row r="145" spans="2:11" ht="36" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
@@ -6990,7 +7030,7 @@
         <v>13424436</v>
       </c>
     </row>
-    <row r="161" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>266</v>
       </c>
@@ -7020,7 +7060,7 @@
         <v>8354326</v>
       </c>
     </row>
-    <row r="162" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>426</v>
       </c>
@@ -7052,7 +7092,7 @@
         <v>7027291</v>
       </c>
     </row>
-    <row r="163" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>429</v>
       </c>
@@ -7082,7 +7122,7 @@
         <v>2287537</v>
       </c>
     </row>
-    <row r="164" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>34</v>
       </c>
@@ -7114,7 +7154,8 @@
         <v>321283</v>
       </c>
     </row>
-    <row r="165" spans="2:11" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
       <c r="B165" s="2" t="s">
         <v>68</v>
       </c>
@@ -7143,8 +7184,10 @@
       <c r="K165" s="2">
         <v>6381492</v>
       </c>
-    </row>
-    <row r="166" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L165" s="3"/>
+    </row>
+    <row r="166" spans="1:12" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A166"/>
       <c r="B166" s="1" t="s">
         <v>437</v>
       </c>
@@ -7173,8 +7216,9 @@
       <c r="K166" s="1">
         <v>8923962</v>
       </c>
-    </row>
-    <row r="167" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L166"/>
+    </row>
+    <row r="167" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>160</v>
       </c>
@@ -7204,7 +7248,7 @@
         <v>8834694</v>
       </c>
     </row>
-    <row r="168" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>165</v>
       </c>
@@ -7234,7 +7278,7 @@
         <v>9846003</v>
       </c>
     </row>
-    <row r="169" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>63</v>
       </c>
@@ -7266,7 +7310,8 @@
         <v>8608102</v>
       </c>
     </row>
-    <row r="170" spans="2:11" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
       <c r="B170" s="2" t="s">
         <v>135</v>
       </c>
@@ -7295,8 +7340,10 @@
       <c r="K170" s="2">
         <v>8005637</v>
       </c>
-    </row>
-    <row r="171" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="L170" s="3"/>
+    </row>
+    <row r="171" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A171"/>
       <c r="B171" s="1" t="s">
         <v>180</v>
       </c>
@@ -7325,8 +7372,9 @@
       <c r="K171" s="1">
         <v>6357490</v>
       </c>
-    </row>
-    <row r="172" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="L171"/>
+    </row>
+    <row r="172" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>266</v>
       </c>
@@ -7358,7 +7406,8 @@
         <v>8358864</v>
       </c>
     </row>
-    <row r="173" spans="2:11" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
       <c r="B173" s="2" t="s">
         <v>266</v>
       </c>
@@ -7387,8 +7436,10 @@
       <c r="K173" s="2">
         <v>8351473</v>
       </c>
-    </row>
-    <row r="174" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L173" s="3"/>
+    </row>
+    <row r="174" spans="1:12" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A174"/>
       <c r="B174" s="1" t="s">
         <v>453</v>
       </c>
@@ -7417,8 +7468,9 @@
       <c r="K174" s="1">
         <v>6443968</v>
       </c>
-    </row>
-    <row r="175" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="L174"/>
+    </row>
+    <row r="175" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>180</v>
       </c>
@@ -7448,7 +7500,7 @@
         <v>6286803</v>
       </c>
     </row>
-    <row r="176" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>453</v>
       </c>
@@ -7478,7 +7530,7 @@
         <v>9816748</v>
       </c>
     </row>
-    <row r="177" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>171</v>
       </c>
@@ -7508,7 +7560,7 @@
         <v>11853906</v>
       </c>
     </row>
-    <row r="178" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>18</v>
       </c>
@@ -7540,7 +7592,7 @@
         <v>6550601</v>
       </c>
     </row>
-    <row r="179" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>39</v>
       </c>
@@ -7570,7 +7622,7 @@
         <v>4885498</v>
       </c>
     </row>
-    <row r="180" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>290</v>
       </c>
@@ -7600,7 +7652,7 @@
         <v>9320822</v>
       </c>
     </row>
-    <row r="181" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>140</v>
       </c>
@@ -7630,7 +7682,8 @@
         <v>4824430</v>
       </c>
     </row>
-    <row r="182" spans="2:11" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
       <c r="B182" s="2" t="s">
         <v>228</v>
       </c>
@@ -7659,8 +7712,10 @@
       <c r="K182" s="2">
         <v>7453141</v>
       </c>
-    </row>
-    <row r="183" spans="2:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="L182" s="3"/>
+    </row>
+    <row r="183" spans="1:12" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A183"/>
       <c r="B183" s="1" t="s">
         <v>5</v>
       </c>
@@ -7689,8 +7744,9 @@
       <c r="K183" s="1">
         <v>7361449</v>
       </c>
-    </row>
-    <row r="184" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L183"/>
+    </row>
+    <row r="184" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>143</v>
       </c>
@@ -7720,7 +7776,7 @@
         <v>3941018</v>
       </c>
     </row>
-    <row r="185" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>476</v>
       </c>
@@ -7750,7 +7806,7 @@
         <v>11371659</v>
       </c>
     </row>
-    <row r="186" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>68</v>
       </c>
@@ -7780,7 +7836,8 @@
         <v>6298291</v>
       </c>
     </row>
-    <row r="187" spans="2:11" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="A187" s="5"/>
       <c r="B187" s="4" t="s">
         <v>481</v>
       </c>
@@ -7809,8 +7866,10 @@
       <c r="K187" s="4" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="188" spans="2:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="L187" s="5"/>
+    </row>
+    <row r="188" spans="1:12" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A188"/>
       <c r="B188" s="1" t="s">
         <v>39</v>
       </c>
@@ -7841,8 +7900,9 @@
       <c r="K188" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="189" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="L188"/>
+    </row>
+    <row r="189" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>8</v>
       </c>
@@ -7872,7 +7932,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="190" spans="2:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>453</v>
       </c>
@@ -7902,7 +7962,7 @@
         <v>6321790</v>
       </c>
     </row>
-    <row r="191" spans="2:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>5</v>
       </c>
@@ -7932,7 +7992,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="192" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>116</v>
       </c>
